--- a/Android/ExcelData_V2/L2DTouchReaction.xlsx
+++ b/Android/ExcelData_V2/L2DTouchReaction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F428A-7B94-40A7-938C-8509AD46EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD31E08-CF4C-4553-AD16-D53BFEA9EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="237">
   <si>
     <t>TOUCH_BODY_TYPE</t>
   </si>
@@ -813,6 +813,10 @@
   </si>
   <si>
     <t>key_2:int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1862,6 +1866,11 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TOUCH_BODY_TYPE</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -2117,6 +2126,11 @@
         </row>
       </sheetData>
       <sheetData sheetId="12">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TOUCH_GESTURE_TYPE</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -2178,7 +2192,13 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="18">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>INEQUALITY_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
@@ -2281,12 +2301,12 @@
       <sheetName val="me_serifu_data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="5">
           <cell r="A5">
@@ -8153,8 +8173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H916"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9571,7 +9591,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9668,13 +9688,13 @@
         <v>90</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>90</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>90</v>
@@ -11023,7 +11043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData_V2/L2DTouchReaction.xlsx
+++ b/Android/ExcelData_V2/L2DTouchReaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD31E08-CF4C-4553-AD16-D53BFEA9EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893FF6F9-EE38-4FB1-91B4-9773AB62DEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="239">
   <si>
     <t>TOUCH_BODY_TYPE</t>
   </si>
@@ -817,6 +817,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6789,389 +6797,434 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K992"/>
+  <dimension ref="A1:L992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="39" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="39" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" customWidth="1"/>
+    <col min="15" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="22"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>233</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="23"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1">
       <c r="A5" s="88">
-        <f t="shared" ref="A5:A16" ca="1" si="0">INDEX(l2d_char_skin_id, MATCH(OFFSET(A5, 0, 1), l2d_char_skin_info, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="88">
+        <f t="shared" ref="A5:B16" ca="1" si="0">INDEX(l2d_char_skin_id, MATCH(OFFSET(B5, 0, 1), l2d_char_skin_info, 0))</f>
         <v>1010001</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="C5" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="91">
-        <f t="shared" ref="C5:C16" ca="1" si="1">INDEX(LOVE_LEVEL_TYPE_value, MATCH(OFFSET(C5, 0, 1), LOVE_LEVEL_TYPE_comment, 0))</f>
+      <c r="D5" s="91">
+        <f t="shared" ref="D5:D16" ca="1" si="1">INDEX(LOVE_LEVEL_TYPE_value, MATCH(OFFSET(D5, 0, 1), LOVE_LEVEL_TYPE_comment, 0))</f>
         <v>1</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="E5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="91">
-        <f t="shared" ref="E5:E16" ca="1" si="2">INDEX(l2d_skin_ani_state_id, MATCH(OFFSET(E5, 0, 1), l2d_skin_ani_state_info, 0))</f>
+      <c r="F5" s="91">
+        <f t="shared" ref="F5:F16" ca="1" si="2">INDEX(l2d_skin_ani_state_id, MATCH(OFFSET(F5, 0, 1), l2d_skin_ani_state_info, 0))</f>
         <v>10100011</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="G5" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1">
       <c r="A6" s="89">
+        <v>2</v>
+      </c>
+      <c r="B6" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010001</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="C6" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="92">
+      <c r="D6" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="E6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="92">
+      <c r="F6" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10100011</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="G6" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1">
+    <row r="7" spans="1:12" ht="16.5" customHeight="1">
       <c r="A7" s="89">
+        <v>3</v>
+      </c>
+      <c r="B7" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010001</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="C7" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="92">
+      <c r="D7" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="92">
+      <c r="F7" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10100013</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="G7" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1">
       <c r="A8" s="89">
+        <v>4</v>
+      </c>
+      <c r="B8" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010001</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="C8" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="92">
+      <c r="D8" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="E8" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="92">
+      <c r="F8" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10100013</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="G8" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1">
+    <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="A9" s="89">
+        <v>5</v>
+      </c>
+      <c r="B9" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010001</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="C9" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="92">
+      <c r="D9" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="E9" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="92">
+      <c r="F9" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10100015</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="79" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="90">
+        <v>6</v>
+      </c>
+      <c r="B10" s="90">
         <f t="shared" ca="1" si="0"/>
         <v>1010051</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="C10" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="93">
+      <c r="D10" s="93">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="E10" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="93">
+      <c r="F10" s="93">
         <f t="shared" ca="1" si="2"/>
         <v>10100515</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="G10" s="80" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:12" ht="16.5" customHeight="1">
       <c r="A11" s="88">
+        <v>7</v>
+      </c>
+      <c r="B11" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>1010101</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="C11" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="91">
+      <c r="D11" s="91">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="E11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="91">
+      <c r="F11" s="91">
         <f t="shared" ca="1" si="2"/>
         <v>10101011</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="G11" s="78" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1">
       <c r="A12" s="89">
+        <v>8</v>
+      </c>
+      <c r="B12" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010101</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="C12" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="92">
+      <c r="D12" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="E12" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="92">
+      <c r="F12" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10101011</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="G12" s="79" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1">
       <c r="A13" s="89">
+        <v>9</v>
+      </c>
+      <c r="B13" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010101</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="C13" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="92">
+      <c r="D13" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="E13" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="92">
+      <c r="F13" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10101013</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="G13" s="79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1">
       <c r="A14" s="89">
+        <v>10</v>
+      </c>
+      <c r="B14" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010101</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="C14" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="92">
+      <c r="D14" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="E14" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="92">
+      <c r="F14" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10101013</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="G14" s="79" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1">
+    <row r="15" spans="1:12" ht="16.5" customHeight="1">
       <c r="A15" s="89">
+        <v>11</v>
+      </c>
+      <c r="B15" s="89">
         <f t="shared" ca="1" si="0"/>
         <v>1010101</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="C15" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="92">
+      <c r="D15" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="E15" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="92">
+      <c r="F15" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10101015</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="G15" s="79" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="90">
+        <v>12</v>
+      </c>
+      <c r="B16" s="90">
         <f t="shared" ca="1" si="0"/>
         <v>1010151</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="C16" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="93">
+      <c r="D16" s="93">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="E16" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="93">
+      <c r="F16" s="93">
         <f t="shared" ca="1" si="2"/>
         <v>10101515</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="G16" s="80" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8154,13 +8207,13 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B16" xr:uid="{28EB9EDC-98FF-46E5-86D0-A49521D23778}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C16" xr:uid="{28EB9EDC-98FF-46E5-86D0-A49521D23778}">
       <formula1>l2d_char_skin_info</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D16" xr:uid="{CACDE897-B70D-494A-91D2-08A17852B286}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E16" xr:uid="{CACDE897-B70D-494A-91D2-08A17852B286}">
       <formula1>LOVE_LEVEL_TYPE_comment</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16" xr:uid="{23607756-0EAC-4BAD-9CA9-75018E3D6AE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G16" xr:uid="{23607756-0EAC-4BAD-9CA9-75018E3D6AE8}">
       <formula1>l2d_skin_ani_state_info</formula1>
     </dataValidation>
   </dataValidations>
@@ -8173,8 +8226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H916"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Android/ExcelData_V2/L2DTouchReaction.xlsx
+++ b/Android/ExcelData_V2/L2DTouchReaction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893FF6F9-EE38-4FB1-91B4-9773AB62DEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF70EBA-1F4B-4E9A-B9D5-2223177C8A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
     <definedName name="l2d_skin_ani_state_info">l2d_skin_ani_state!$D$5:$D$20</definedName>
     <definedName name="LOVE_LEVEL_TYPE_comment">'!참조'!$K$4:$K$9</definedName>
     <definedName name="LOVE_LEVEL_TYPE_value">'!참조'!$J$4:$J$9</definedName>
-    <definedName name="me_chat_motion_data_id_comment">'!참조'!$V$4:$V$35</definedName>
-    <definedName name="me_chat_motion_data_id_value">'!참조'!$U$4:$U$35</definedName>
+    <definedName name="me_chat_motion_data_id_comment">'!참조'!$V$4:$V$36</definedName>
+    <definedName name="me_chat_motion_data_id_value">'!참조'!$U$4:$U$36</definedName>
     <definedName name="me_serifu_data_id_comment">'!참조'!$Y$4:$Y$52</definedName>
     <definedName name="me_serifu_data_id_value">'!참조'!$X$4:$X$52</definedName>
     <definedName name="TOUCH_BODY_TYPE_comment">'!참조'!$G$4:$G$26</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="239">
   <si>
     <t>TOUCH_BODY_TYPE</t>
   </si>
@@ -184,9 +184,6 @@
     <t>4 타입</t>
   </si>
   <si>
-    <t>5 골반</t>
-  </si>
-  <si>
     <t>5 사랑함</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
   </si>
   <si>
     <t>모리나_서약_01</t>
-  </si>
-  <si>
-    <t>상호작용이 진행되는 L2d 스킨 아이디</t>
   </si>
   <si>
     <t>캐릭터 호감도 타입</t>
@@ -766,12 +760,6 @@
     <t>애니메이션 설명 32</t>
   </si>
   <si>
-    <t>애니메이션 설명 1</t>
-  </si>
-  <si>
-    <t>애니메이션 설명 2</t>
-  </si>
-  <si>
     <t>#state_info</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -804,6 +792,20 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 대기 애니메이션</t>
+  </si>
+  <si>
+    <t>기본 대기 애니메이션</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 입</t>
+  </si>
+  <si>
     <t>key_1:int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -812,19 +814,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>key_2:int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용이 진행되는 L2d 스킨 아이디</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2d_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1804,6 +1806,9 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1874,11 +1879,6 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TOUCH_BODY_TYPE</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -2134,11 +2134,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TOUCH_GESTURE_TYPE</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -2200,13 +2195,7 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>INEQUALITY_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
@@ -2309,12 +2298,12 @@
       <sheetName val="me_serifu_data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="5">
           <cell r="A5">
@@ -2474,6 +2463,11 @@
         <row r="36">
           <cell r="A36">
             <v>1200002021</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>10000001</v>
           </cell>
         </row>
       </sheetData>
@@ -3076,7 +3070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3110,7 +3106,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3136,10 +3132,10 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="U1" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="76" t="s">
         <v>163</v>
-      </c>
-      <c r="X1" s="76" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="16.5" customHeight="1">
@@ -3170,11 +3166,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="U2" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V2" s="1"/>
       <c r="X2" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -3299,7 +3295,7 @@
         <v>200001001</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X4" s="10">
         <f>[2]me_serifu_data!$A5</f>
@@ -3371,7 +3367,7 @@
         <v>200001002</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="X5" s="10">
         <f>[2]me_serifu_data!$A6</f>
@@ -3443,7 +3439,7 @@
         <v>200001003</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X6" s="10">
         <f>[2]me_serifu_data!$A7</f>
@@ -3515,7 +3511,7 @@
         <v>200001004</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X7" s="10">
         <f>[2]me_serifu_data!$A8</f>
@@ -3587,7 +3583,7 @@
         <v>1200001001</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X8" s="10">
         <f>[2]me_serifu_data!$A9</f>
@@ -3627,30 +3623,30 @@
         <v>5 사랑함</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="6">
         <v>5</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R9" s="6">
         <v>5</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U9" s="10">
         <f>[2]me_chat_motion_data!$A10</f>
         <v>1200001002</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X9" s="10">
         <f>[2]me_serifu_data!$A10</f>
@@ -3678,30 +3674,30 @@
         <v>6 다리</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" s="6">
         <v>6</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" s="6">
         <v>6</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U10" s="10">
         <f>[2]me_chat_motion_data!$A11</f>
         <v>1200001003</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X10" s="10">
         <f>[2]me_serifu_data!$A11</f>
@@ -3729,30 +3725,30 @@
         <v>7 눈</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="6">
         <v>7</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R11" s="6">
         <v>7</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U11" s="11">
         <f>[2]me_chat_motion_data!$A12</f>
         <v>1200001004</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="X11" s="10">
         <f>[2]me_serifu_data!$A12</f>
@@ -3780,30 +3776,30 @@
         <v>8 코</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N12" s="6">
         <v>8</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R12" s="6">
         <v>8</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" s="10">
         <f>[2]me_chat_motion_data!$A13</f>
         <v>1200001005</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X12" s="10">
         <f>[2]me_serifu_data!$A13</f>
@@ -3831,30 +3827,30 @@
         <v>9 귀</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="6">
         <v>9</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13" s="6">
         <v>9</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U13" s="10">
         <f>[2]me_chat_motion_data!$A14</f>
         <v>1200001006</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X13" s="10">
         <f>[2]me_serifu_data!$A14</f>
@@ -3879,30 +3875,30 @@
         <v>10 볼</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="6">
         <v>10</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="6">
         <v>10</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U14" s="10">
         <f>[2]me_chat_motion_data!$A15</f>
         <v>1200001007</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X14" s="10">
         <f>[2]me_serifu_data!$A15</f>
@@ -3927,30 +3923,30 @@
         <v>11 턱</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N15" s="6">
         <v>11</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="6">
         <v>11</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U15" s="10">
         <f>[2]me_chat_motion_data!$A16</f>
         <v>1200002001</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X15" s="10">
         <f>[2]me_serifu_data!$A16</f>
@@ -3975,30 +3971,30 @@
         <v>12 이마</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="6">
         <v>12</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R16" s="6">
         <v>12</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U16" s="11">
         <f>[2]me_chat_motion_data!$A17</f>
         <v>1200002002</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="X16" s="10">
         <f>[2]me_serifu_data!$A17</f>
@@ -4027,20 +4023,20 @@
       <c r="O17" s="6"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R17" s="6">
         <v>13</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U17" s="10">
         <f>[2]me_chat_motion_data!$A18</f>
         <v>1200002003</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X17" s="10">
         <f>[2]me_serifu_data!$A18</f>
@@ -4069,20 +4065,20 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R18" s="6">
         <v>14</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U18" s="10">
         <f>[2]me_chat_motion_data!$A19</f>
         <v>1200002004</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X18" s="10">
         <f>[2]me_serifu_data!$A19</f>
@@ -4111,20 +4107,20 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R19" s="6">
         <v>15</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U19" s="10">
         <f>[2]me_chat_motion_data!$A20</f>
         <v>1200002005</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X19" s="10">
         <f>[2]me_serifu_data!$A20</f>
@@ -4160,7 +4156,7 @@
         <v>1200002006</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X20" s="10">
         <f>[2]me_serifu_data!$A21</f>
@@ -4196,7 +4192,7 @@
         <v>1200002007</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X21" s="10">
         <f>[2]me_serifu_data!$A22</f>
@@ -4225,7 +4221,7 @@
         <v>1200002008</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X22" s="10">
         <f>[2]me_serifu_data!$A23</f>
@@ -4254,7 +4250,7 @@
         <v>1200002009</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X23" s="10">
         <f>[2]me_serifu_data!$A24</f>
@@ -4283,7 +4279,7 @@
         <v>1200002010</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X24" s="10">
         <f>[2]me_serifu_data!$A25</f>
@@ -4316,7 +4312,7 @@
         <v>1200002011</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X25" s="10">
         <f>[2]me_serifu_data!$A26</f>
@@ -4345,7 +4341,7 @@
         <v>1200002012</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X26" s="10">
         <f>[2]me_serifu_data!$A27</f>
@@ -4362,7 +4358,7 @@
         <v>1200002013</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X27" s="10">
         <f>[2]me_serifu_data!$A28</f>
@@ -4380,7 +4376,7 @@
         <v>1200002014</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="X28" s="10">
         <f>[2]me_serifu_data!$A29</f>
@@ -4397,7 +4393,7 @@
         <v>1200002015</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X29" s="10">
         <f>[2]me_serifu_data!$A30</f>
@@ -4414,7 +4410,7 @@
         <v>1200002016</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="X30" s="10">
         <f>[2]me_serifu_data!$A31</f>
@@ -4431,7 +4427,7 @@
         <v>1200002017</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X31" s="10">
         <f>[2]me_serifu_data!$A32</f>
@@ -4448,7 +4444,7 @@
         <v>1200002018</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X32" s="10">
         <f>[2]me_serifu_data!$A33</f>
@@ -4465,7 +4461,7 @@
         <v>1200002019</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X33" s="10">
         <f>[2]me_serifu_data!$A34</f>
@@ -4482,7 +4478,7 @@
         <v>1200002020</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="X34" s="10">
         <f>[2]me_serifu_data!$A35</f>
@@ -4499,7 +4495,7 @@
         <v>1200002021</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X35" s="10">
         <f>[2]me_serifu_data!$A36</f>
@@ -4511,6 +4507,13 @@
       </c>
     </row>
     <row r="36" spans="21:25" ht="16.5" customHeight="1">
+      <c r="U36" s="10">
+        <f>[2]me_chat_motion_data!$A37</f>
+        <v>10000001</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="X36" s="10">
         <f>[2]me_serifu_data!$A37</f>
         <v>1100002018</v>
@@ -5639,8 +5642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5658,78 +5661,78 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
@@ -5737,16 +5740,16 @@
         <v>10100</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="18">
         <v>1010001</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5756,22 +5759,22 @@
         <v>10100</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="20">
         <v>1010051</v>
       </c>
       <c r="D6" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
@@ -5779,16 +5782,16 @@
         <v>10101</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="18">
         <v>1010101</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -5798,16 +5801,16 @@
         <v>10101</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="20">
         <v>1010151</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -6799,8 +6802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6823,8 +6826,9 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -6834,25 +6838,25 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="13"/>
@@ -6863,22 +6867,22 @@
         <v>233</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -6886,25 +6890,25 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>108</v>
-      </c>
       <c r="G4" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1">
@@ -6912,11 +6916,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="88">
-        <f t="shared" ref="A5:B16" ca="1" si="0">INDEX(l2d_char_skin_id, MATCH(OFFSET(B5, 0, 1), l2d_char_skin_info, 0))</f>
+        <f t="shared" ref="B5:B16" ca="1" si="0">INDEX(l2d_char_skin_id, MATCH(OFFSET(B5, 0, 1), l2d_char_skin_info, 0))</f>
         <v>1010001</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="91">
         <f t="shared" ref="D5:D16" ca="1" si="1">INDEX(LOVE_LEVEL_TYPE_value, MATCH(OFFSET(D5, 0, 1), LOVE_LEVEL_TYPE_comment, 0))</f>
@@ -6930,7 +6934,7 @@
         <v>10100011</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J5" s="22"/>
       <c r="L5" s="13"/>
@@ -6944,7 +6948,7 @@
         <v>1010001</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="92">
         <f t="shared" ca="1" si="1"/>
@@ -6958,7 +6962,7 @@
         <v>10100011</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J6" s="13"/>
       <c r="L6" s="13"/>
@@ -6972,7 +6976,7 @@
         <v>1010001</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="92">
         <f t="shared" ca="1" si="1"/>
@@ -6983,10 +6987,10 @@
       </c>
       <c r="F7" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>10100013</v>
+        <v>10100011</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J7" s="13"/>
       <c r="L7" s="13"/>
@@ -7000,7 +7004,7 @@
         <v>1010001</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="92">
         <f t="shared" ca="1" si="1"/>
@@ -7011,10 +7015,10 @@
       </c>
       <c r="F8" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>10100013</v>
+        <v>10100011</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -7029,25 +7033,25 @@
         <v>1010001</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10100015</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="90">
+      <c r="A10" s="127">
         <v>6</v>
       </c>
       <c r="B10" s="90">
@@ -7055,21 +7059,21 @@
         <v>1010051</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="93">
+        <v>96</v>
+      </c>
+      <c r="D10" s="92">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="93">
+        <v>16</v>
+      </c>
+      <c r="F10" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>10100515</v>
-      </c>
-      <c r="G10" s="80" t="s">
-        <v>182</v>
+        <v>10100011</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1">
@@ -7081,7 +7085,7 @@
         <v>1010101</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="91">
         <f t="shared" ca="1" si="1"/>
@@ -7095,7 +7099,7 @@
         <v>10101011</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1">
@@ -7107,7 +7111,7 @@
         <v>1010101</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="92">
         <f t="shared" ca="1" si="1"/>
@@ -7121,7 +7125,7 @@
         <v>10101011</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1">
@@ -7133,7 +7137,7 @@
         <v>1010101</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="92">
         <f t="shared" ca="1" si="1"/>
@@ -7147,7 +7151,7 @@
         <v>10101013</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1">
@@ -7159,7 +7163,7 @@
         <v>1010101</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="92">
         <f t="shared" ca="1" si="1"/>
@@ -7173,7 +7177,7 @@
         <v>10101013</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1">
@@ -7185,25 +7189,25 @@
         <v>1010101</v>
       </c>
       <c r="C15" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="92">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="92">
         <f t="shared" ca="1" si="2"/>
         <v>10101015</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="90">
+      <c r="A16" s="127">
         <v>12</v>
       </c>
       <c r="B16" s="90">
@@ -7211,21 +7215,21 @@
         <v>1010151</v>
       </c>
       <c r="C16" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="93">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="93">
         <f t="shared" ca="1" si="2"/>
         <v>10101515</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1"/>
@@ -8227,7 +8231,7 @@
   <dimension ref="A1:H916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8249,7 +8253,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8257,76 +8261,76 @@
     </row>
     <row r="2" spans="1:8" ht="36.75" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="F2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="120" t="s">
         <v>16</v>
@@ -8335,14 +8339,14 @@
         <v>10100011</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="101">
         <f t="shared" ref="E5:E20" ca="1" si="0">INDEX(me_chat_motion_data_id_value, MATCH(OFFSET(E5, 0, 1), me_chat_motion_data_id_comment, 0))</f>
-        <v>1200002018</v>
+        <v>10000001</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G5" s="32" t="str">
         <f>C5&amp;"01"</f>
@@ -8351,7 +8355,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
       <c r="A6" s="121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="122" t="s">
         <v>26</v>
@@ -8360,14 +8364,14 @@
         <v>10100013</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="102">
         <f t="shared" ca="1" si="0"/>
-        <v>1200002018</v>
+        <v>10000001</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>C6&amp;"03"</f>
@@ -8376,23 +8380,23 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="123" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="37">
         <v>10100015</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="103">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G7" s="38" t="str">
         <f>C7&amp;"05"</f>
@@ -8401,23 +8405,23 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="31">
         <v>10100511</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E8" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G8" s="32" t="str">
         <f t="shared" ref="G8:G13" si="1">C8&amp;"01"</f>
@@ -8427,23 +8431,23 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="31">
         <v>10100512</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G9" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8453,23 +8457,23 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="31">
         <v>10100513</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G10" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8479,23 +8483,23 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="31">
         <v>10100514</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E11" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G11" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8505,23 +8509,23 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A12" s="119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="31">
         <v>10100515</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E12" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G12" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8530,7 +8534,7 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="120" t="s">
         <v>16</v>
@@ -8539,14 +8543,14 @@
         <v>10101011</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G13" s="32" t="str">
         <f t="shared" si="1"/>
@@ -8555,7 +8559,7 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="122" t="s">
         <v>26</v>
@@ -8564,14 +8568,14 @@
         <v>10101013</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="102">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>C14&amp;"03"</f>
@@ -8580,23 +8584,23 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A15" s="123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="37">
         <v>10101015</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E15" s="103">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G15" s="38" t="str">
         <f>C15&amp;"05"</f>
@@ -8605,23 +8609,23 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="31">
         <v>10101511</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G16" s="32" t="str">
         <f t="shared" ref="G16:G20" si="2">C16&amp;"01"</f>
@@ -8630,23 +8634,23 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
       <c r="A17" s="119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="31">
         <v>10101512</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G17" s="32" t="str">
         <f t="shared" si="2"/>
@@ -8655,23 +8659,23 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="31">
         <v>10101513</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G18" s="32" t="str">
         <f t="shared" si="2"/>
@@ -8680,23 +8684,23 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
       <c r="A19" s="119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="31">
         <v>10101514</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G19" s="32" t="str">
         <f t="shared" si="2"/>
@@ -8705,23 +8709,23 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
       <c r="A20" s="125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="40">
         <v>10101515</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="104">
         <f t="shared" ca="1" si="0"/>
         <v>1200002018</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G20" s="41" t="str">
         <f t="shared" si="2"/>
@@ -9644,7 +9648,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9668,51 +9672,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5">
@@ -9720,87 +9724,87 @@
         <v>233</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>234</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="J3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="H4" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="I4" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="J4" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="K4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="L4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="M4" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>140</v>
-      </c>
       <c r="N4" s="46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5">
@@ -9808,20 +9812,20 @@
         <v>1010001101</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="109" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="105">
         <f t="shared" ref="E5:E10" ca="1" si="0">INDEX(TOUCH_BODY_TYPE_value, MATCH(OFFSET(E5, 0, 1), TOUCH_BODY_TYPE_comment, 0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="G5" s="105">
         <f t="shared" ref="G5:G10" ca="1" si="1">INDEX(TOUCH_GESTURE_TYPE_value, MATCH(OFFSET(G5, 0, 1), TOUCH_GESTURE_TYPE_comment, 0))</f>
@@ -9832,23 +9836,23 @@
       </c>
       <c r="I5" s="105">
         <f ca="1">INDEX(me_chat_motion_data_id_value, MATCH(OFFSET(I5, 0, 1), me_chat_motion_data_id_comment, 0))</f>
-        <v>200001001</v>
+        <v>1200002004</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="K5" s="105">
         <v>0</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" s="105">
         <f t="shared" ref="M5:M10" ca="1" si="2">INDEX(l2d_skin_ani_state_id, MATCH(OFFSET(M5, 0, 1), l2d_skin_ani_state_info, 0))</f>
         <v>10100011</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
@@ -9856,13 +9860,13 @@
         <v>1010001101</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="111" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="106">
         <f t="shared" ca="1" si="0"/>
@@ -9880,23 +9884,23 @@
       </c>
       <c r="I6" s="106">
         <f t="shared" ref="I6:I10" ca="1" si="3">INDEX(me_chat_motion_data_id_value, MATCH(OFFSET(I6, 0, 1), me_chat_motion_data_id_comment, 0))</f>
-        <v>200001002</v>
+        <v>1200002005</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="K6" s="106">
         <v>0</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" ca="1" si="2"/>
         <v>10100011</v>
       </c>
       <c r="N6" s="77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.25" thickBot="1">
@@ -9904,20 +9908,20 @@
         <v>1010001101</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="113" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" s="106">
         <f t="shared" ca="1" si="1"/>
@@ -9928,44 +9932,44 @@
       </c>
       <c r="I7" s="106">
         <f t="shared" ca="1" si="3"/>
-        <v>200001003</v>
+        <v>1200002006</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K7" s="106">
         <v>0</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" ca="1" si="2"/>
         <v>10100011</v>
       </c>
       <c r="N7" s="77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="31">
-        <v>1010001102</v>
+        <v>1010001303</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="111" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="105">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="G8" s="105">
         <f t="shared" ca="1" si="1"/>
@@ -9976,37 +9980,37 @@
       </c>
       <c r="I8" s="105">
         <f t="shared" ca="1" si="3"/>
-        <v>200001004</v>
+        <v>1200002004</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K8" s="105">
         <v>0</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M8" s="105">
         <f t="shared" ca="1" si="2"/>
         <v>10100013</v>
       </c>
       <c r="N8" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="34">
-        <v>1010001102</v>
+        <v>1010001303</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="109" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="106">
         <f t="shared" ca="1" si="0"/>
@@ -10024,44 +10028,44 @@
       </c>
       <c r="I9" s="106">
         <f t="shared" ca="1" si="3"/>
-        <v>1200001001</v>
+        <v>1200002005</v>
       </c>
       <c r="J9" s="55" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K9" s="106">
         <v>0</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M9" s="106">
         <f t="shared" ca="1" si="2"/>
         <v>10100013</v>
       </c>
       <c r="N9" s="77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1">
       <c r="A10" s="62">
-        <v>1010001102</v>
+        <v>1010001303</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="113" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="107">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G10" s="107">
         <f t="shared" ca="1" si="1"/>
@@ -10072,23 +10076,23 @@
       </c>
       <c r="I10" s="107">
         <f t="shared" ca="1" si="3"/>
-        <v>1200001002</v>
-      </c>
-      <c r="J10" s="65" t="s">
-        <v>196</v>
+        <v>1200002006</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>205</v>
       </c>
       <c r="K10" s="107">
         <v>0</v>
       </c>
       <c r="L10" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M10" s="107">
         <f t="shared" ca="1" si="2"/>
         <v>10100013</v>
       </c>
       <c r="N10" s="82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -11097,7 +11101,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11121,51 +11125,51 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="34.5" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="H2" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="J2" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="L2" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="O2" s="71"/>
       <c r="P2" s="71"/>
@@ -11181,90 +11185,90 @@
     </row>
     <row r="3" spans="1:25" ht="16.5">
       <c r="A3" s="15" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5">
       <c r="A4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="H4" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="I4" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="J4" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="K4" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="L4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="M4" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>138</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" s="46" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16.5">
@@ -11272,13 +11276,13 @@
         <v>1010051101</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="50">
         <f t="array" ref="E5">INDEX('!참조'!$F$3:$F$30,MATCH(F5,'!참조'!$G$3:$G$30,0))</f>
@@ -11308,13 +11312,13 @@
         <v>1010051101</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="11">
         <f t="array" ref="E6">INDEX('!참조'!$F$3:$F$30,MATCH(F6,'!참조'!$G$3:$G$30,0))</f>
@@ -11342,13 +11346,13 @@
         <v>1010051101</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="11">
         <f t="array" ref="E7">INDEX('!참조'!$F$3:$F$30,MATCH(F7,'!참조'!$G$3:$G$30,0))</f>
@@ -11376,20 +11380,20 @@
         <v>1010051101</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="11">
         <f t="array" ref="E8">INDEX('!참조'!$F$3:$F$30,MATCH(F8,'!참조'!$G$3:$G$30,0))</f>
         <v>13</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="11">
         <f t="array" ref="G8">INDEX('!참조'!$B$3:$B$20,MATCH(H8,'!참조'!$C$3:$C$20,0))</f>
@@ -11410,20 +11414,20 @@
         <v>1010051101</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="11">
         <f t="array" ref="E9">INDEX('!참조'!$F$3:$F$30,MATCH(F9,'!참조'!$G$3:$G$30,0))</f>
         <v>14</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="11">
         <f t="array" ref="G9">INDEX('!참조'!$B$3:$B$20,MATCH(H9,'!참조'!$C$3:$C$20,0))</f>
@@ -11444,20 +11448,20 @@
         <v>1010051101</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="11">
         <f t="array" ref="E10">INDEX('!참조'!$F$3:$F$30,MATCH(F10,'!참조'!$G$3:$G$30,0))</f>
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11">
         <f t="array" ref="G10">INDEX('!참조'!$B$3:$B$20,MATCH(H10,'!참조'!$C$3:$C$20,0))</f>
@@ -11478,20 +11482,20 @@
         <v>1010051101</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="11">
         <f t="array" ref="E11">INDEX('!참조'!$F$3:$F$30,MATCH(F11,'!참조'!$G$3:$G$30,0))</f>
         <v>6</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="11">
         <f t="array" ref="G11">INDEX('!참조'!$B$3:$B$20,MATCH(H11,'!참조'!$C$3:$C$20,0))</f>
@@ -11512,20 +11516,20 @@
         <v>1010051101</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="11">
         <f t="array" ref="E12">INDEX('!참조'!$F$3:$F$30,MATCH(F12,'!참조'!$G$3:$G$30,0))</f>
         <v>15</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="11">
         <f t="array" ref="G12">INDEX('!참조'!$B$3:$B$20,MATCH(H12,'!참조'!$C$3:$C$20,0))</f>
@@ -11557,20 +11561,20 @@
         <v>1010051102</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="11">
         <f t="array" ref="E13">INDEX('!참조'!$F$3:$F$30,MATCH(F13,'!참조'!$G$3:$G$30,0))</f>
         <v>19</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="11">
         <f t="array" ref="G13">INDEX('!참조'!$B$3:$B$20,MATCH(H13,'!참조'!$C$3:$C$20,0))</f>
@@ -11591,20 +11595,20 @@
         <v>1010051103</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="63">
         <f t="array" ref="E14">INDEX('!참조'!$F$3:$F$30,MATCH(F14,'!참조'!$G$3:$G$30,0))</f>
         <v>20</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="63">
         <f t="array" ref="G14">INDEX('!참조'!$B$3:$B$20,MATCH(H14,'!참조'!$C$3:$C$20,0))</f>
